--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cadm3-Cadm1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cadm3-Cadm1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.199582666666667</v>
+        <v>5.342589</v>
       </c>
       <c r="H2">
-        <v>12.598748</v>
+        <v>16.027767</v>
       </c>
       <c r="I2">
-        <v>0.3470882463138872</v>
+        <v>0.4438787133356475</v>
       </c>
       <c r="J2">
-        <v>0.3745187327618798</v>
+        <v>0.4621170122195802</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.515984</v>
+        <v>0.9817236666666668</v>
       </c>
       <c r="N2">
-        <v>7.547951999999999</v>
+        <v>2.945171</v>
       </c>
       <c r="O2">
-        <v>0.08781336966822691</v>
+        <v>0.04688329326954743</v>
       </c>
       <c r="P2">
-        <v>0.09884082726736675</v>
+        <v>0.04832841473263862</v>
       </c>
       <c r="Q2">
-        <v>10.56608279601067</v>
+        <v>5.244946062573001</v>
       </c>
       <c r="R2">
-        <v>95.09474516409598</v>
+        <v>47.20451456315701</v>
       </c>
       <c r="S2">
-        <v>0.03047898848105797</v>
+        <v>0.02081049589342453</v>
       </c>
       <c r="T2">
-        <v>0.03701774137331005</v>
+        <v>0.0223333826215557</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.199582666666667</v>
+        <v>5.342589</v>
       </c>
       <c r="H3">
-        <v>12.598748</v>
+        <v>16.027767</v>
       </c>
       <c r="I3">
-        <v>0.3470882463138872</v>
+        <v>0.4438787133356475</v>
       </c>
       <c r="J3">
-        <v>0.3745187327618798</v>
+        <v>0.4621170122195802</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.10016866666667</v>
+        <v>5.154927333333333</v>
       </c>
       <c r="N3">
-        <v>30.300506</v>
+        <v>15.464782</v>
       </c>
       <c r="O3">
-        <v>0.3525180783492433</v>
+        <v>0.2461792235003055</v>
       </c>
       <c r="P3">
-        <v>0.396786715079774</v>
+        <v>0.2537674037418691</v>
       </c>
       <c r="Q3">
-        <v>42.41649326294311</v>
+        <v>27.540658066866</v>
       </c>
       <c r="R3">
-        <v>381.748439366488</v>
+        <v>247.865922601794</v>
       </c>
       <c r="S3">
-        <v>0.1223548816081803</v>
+        <v>0.1092737169772844</v>
       </c>
       <c r="T3">
-        <v>0.148604057708426</v>
+        <v>0.1172702344159125</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.199582666666667</v>
+        <v>5.342589</v>
       </c>
       <c r="H4">
-        <v>12.598748</v>
+        <v>16.027767</v>
       </c>
       <c r="I4">
-        <v>0.3470882463138872</v>
+        <v>0.4438787133356475</v>
       </c>
       <c r="J4">
-        <v>0.3745187327618798</v>
+        <v>0.4621170122195802</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.589755</v>
+        <v>1.8784265</v>
       </c>
       <c r="N4">
-        <v>19.17951</v>
+        <v>3.756853</v>
       </c>
       <c r="O4">
-        <v>0.3347035199121804</v>
+        <v>0.08970632314876403</v>
       </c>
       <c r="P4">
-        <v>0.2511566892559377</v>
+        <v>0.06164760887349412</v>
       </c>
       <c r="Q4">
-        <v>40.27296887558001</v>
+        <v>10.0356607562085</v>
       </c>
       <c r="R4">
-        <v>241.63781325348</v>
+        <v>60.21396453725099</v>
       </c>
       <c r="S4">
-        <v>0.1161716577614039</v>
+        <v>0.03981872729734519</v>
       </c>
       <c r="T4">
-        <v>0.09406288498480302</v>
+        <v>0.02848840882310038</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.199582666666667</v>
+        <v>5.342589</v>
       </c>
       <c r="H5">
-        <v>12.598748</v>
+        <v>16.027767</v>
       </c>
       <c r="I5">
-        <v>0.3470882463138872</v>
+        <v>0.4438787133356475</v>
       </c>
       <c r="J5">
-        <v>0.3745187327618798</v>
+        <v>0.4621170122195802</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.445583666666667</v>
+        <v>12.924656</v>
       </c>
       <c r="N5">
-        <v>19.336751</v>
+        <v>38.773968</v>
       </c>
       <c r="O5">
-        <v>0.2249650320703492</v>
+        <v>0.617231160081383</v>
       </c>
       <c r="P5">
-        <v>0.2532157683969216</v>
+        <v>0.6362565726519981</v>
       </c>
       <c r="Q5">
-        <v>27.06876144308312</v>
+        <v>69.051124974384</v>
       </c>
       <c r="R5">
-        <v>243.618852987748</v>
+        <v>621.460124769456</v>
       </c>
       <c r="S5">
-        <v>0.07808271846324491</v>
+        <v>0.2739757731675934</v>
       </c>
       <c r="T5">
-        <v>0.09483404869534073</v>
+        <v>0.2940249863590116</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>13.086131</v>
       </c>
       <c r="I6">
-        <v>0.3605153670685209</v>
+        <v>0.3624119935622804</v>
       </c>
       <c r="J6">
-        <v>0.3890070028288486</v>
+        <v>0.3773029492651114</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.515984</v>
+        <v>0.9817236666666668</v>
       </c>
       <c r="N6">
-        <v>7.547951999999999</v>
+        <v>2.945171</v>
       </c>
       <c r="O6">
-        <v>0.08781336966822691</v>
+        <v>0.04688329326954743</v>
       </c>
       <c r="P6">
-        <v>0.09884082726736675</v>
+        <v>0.04832841473263862</v>
       </c>
       <c r="Q6">
-        <v>10.97483207263467</v>
+        <v>4.282321502600111</v>
       </c>
       <c r="R6">
-        <v>98.77348865371198</v>
+        <v>38.540893523401</v>
       </c>
       <c r="S6">
-        <v>0.03165806919946455</v>
+        <v>0.01699106777858173</v>
       </c>
       <c r="T6">
-        <v>0.03844977397240227</v>
+        <v>0.01823445341193201</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>13.086131</v>
       </c>
       <c r="I7">
-        <v>0.3605153670685209</v>
+        <v>0.3624119935622804</v>
       </c>
       <c r="J7">
-        <v>0.3890070028288486</v>
+        <v>0.3773029492651114</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.10016866666667</v>
+        <v>5.154927333333333</v>
       </c>
       <c r="N7">
-        <v>30.300506</v>
+        <v>15.464782</v>
       </c>
       <c r="O7">
-        <v>0.3525180783492433</v>
+        <v>0.2461792235003055</v>
       </c>
       <c r="P7">
-        <v>0.396786715079774</v>
+        <v>0.2537674037418691</v>
       </c>
       <c r="Q7">
-        <v>44.05737676469845</v>
+        <v>22.48601812649355</v>
       </c>
       <c r="R7">
-        <v>396.516390882286</v>
+        <v>202.374163138442</v>
       </c>
       <c r="S7">
-        <v>0.1270881844143671</v>
+        <v>0.08921830316235989</v>
       </c>
       <c r="T7">
-        <v>0.1543528107954872</v>
+        <v>0.09574718985915749</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>13.086131</v>
       </c>
       <c r="I8">
-        <v>0.3605153670685209</v>
+        <v>0.3624119935622804</v>
       </c>
       <c r="J8">
-        <v>0.3890070028288486</v>
+        <v>0.3773029492651114</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.589755</v>
+        <v>1.8784265</v>
       </c>
       <c r="N8">
-        <v>19.17951</v>
+        <v>3.756853</v>
       </c>
       <c r="O8">
-        <v>0.3347035199121804</v>
+        <v>0.08970632314876403</v>
       </c>
       <c r="P8">
-        <v>0.2511566892559377</v>
+        <v>0.06164760887349412</v>
       </c>
       <c r="Q8">
-        <v>41.830930062635</v>
+        <v>8.193778417623832</v>
       </c>
       <c r="R8">
-        <v>250.98558037581</v>
+        <v>49.16267050574299</v>
       </c>
       <c r="S8">
-        <v>0.1206657623402657</v>
+        <v>0.03251064740748572</v>
       </c>
       <c r="T8">
-        <v>0.09770171092786881</v>
+        <v>0.02325982464311139</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>13.086131</v>
       </c>
       <c r="I9">
-        <v>0.3605153670685209</v>
+        <v>0.3624119935622804</v>
       </c>
       <c r="J9">
-        <v>0.3890070028288486</v>
+        <v>0.3773029492651114</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.445583666666667</v>
+        <v>12.924656</v>
       </c>
       <c r="N9">
-        <v>19.336751</v>
+        <v>38.773968</v>
       </c>
       <c r="O9">
-        <v>0.2249650320703492</v>
+        <v>0.617231160081383</v>
       </c>
       <c r="P9">
-        <v>0.2532157683969216</v>
+        <v>0.6362565726519981</v>
       </c>
       <c r="Q9">
-        <v>28.11591741115344</v>
+        <v>56.37791384864533</v>
       </c>
       <c r="R9">
-        <v>253.043256700381</v>
+        <v>507.401224637808</v>
       </c>
       <c r="S9">
-        <v>0.08110335111442354</v>
+        <v>0.223691975213853</v>
       </c>
       <c r="T9">
-        <v>0.09850270713309035</v>
+        <v>0.2400614813509105</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7916129999999999</v>
+        <v>0.8673346666666665</v>
       </c>
       <c r="H10">
-        <v>2.374839</v>
+        <v>2.602004</v>
       </c>
       <c r="I10">
-        <v>0.0654254457496749</v>
+        <v>0.07206082965981524</v>
       </c>
       <c r="J10">
-        <v>0.07059603801849912</v>
+        <v>0.07502169917140648</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.515984</v>
+        <v>0.9817236666666668</v>
       </c>
       <c r="N10">
-        <v>7.547951999999999</v>
+        <v>2.945171</v>
       </c>
       <c r="O10">
-        <v>0.08781336966822691</v>
+        <v>0.04688329326954743</v>
       </c>
       <c r="P10">
-        <v>0.09884082726736675</v>
+        <v>0.04832841473263862</v>
       </c>
       <c r="Q10">
-        <v>1.991685642192</v>
+        <v>0.851482969187111</v>
       </c>
       <c r="R10">
-        <v>17.925170779728</v>
+        <v>7.663346722684</v>
       </c>
       <c r="S10">
-        <v>0.005745228853324728</v>
+        <v>0.003378449010188019</v>
       </c>
       <c r="T10">
-        <v>0.006977770799546927</v>
+        <v>0.003625679791502984</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7916129999999999</v>
+        <v>0.8673346666666665</v>
       </c>
       <c r="H11">
-        <v>2.374839</v>
+        <v>2.602004</v>
       </c>
       <c r="I11">
-        <v>0.0654254457496749</v>
+        <v>0.07206082965981524</v>
       </c>
       <c r="J11">
-        <v>0.07059603801849912</v>
+        <v>0.07502169917140648</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.10016866666667</v>
+        <v>5.154927333333333</v>
       </c>
       <c r="N11">
-        <v>30.300506</v>
+        <v>15.464782</v>
       </c>
       <c r="O11">
-        <v>0.3525180783492433</v>
+        <v>0.2461792235003055</v>
       </c>
       <c r="P11">
-        <v>0.396786715079774</v>
+        <v>0.2537674037418691</v>
       </c>
       <c r="Q11">
-        <v>7.995424818725999</v>
+        <v>4.471047180347554</v>
       </c>
       <c r="R11">
-        <v>71.95882336853398</v>
+        <v>40.239424623128</v>
       </c>
       <c r="S11">
-        <v>0.02306365241081807</v>
+        <v>0.0177398790904411</v>
       </c>
       <c r="T11">
-        <v>0.0280115700230071</v>
+        <v>0.01903806182303136</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7916129999999999</v>
+        <v>0.8673346666666665</v>
       </c>
       <c r="H12">
-        <v>2.374839</v>
+        <v>2.602004</v>
       </c>
       <c r="I12">
-        <v>0.0654254457496749</v>
+        <v>0.07206082965981524</v>
       </c>
       <c r="J12">
-        <v>0.07059603801849912</v>
+        <v>0.07502169917140648</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.589755</v>
+        <v>1.8784265</v>
       </c>
       <c r="N12">
-        <v>19.17951</v>
+        <v>3.756853</v>
       </c>
       <c r="O12">
-        <v>0.3347035199121804</v>
+        <v>0.08970632314876403</v>
       </c>
       <c r="P12">
-        <v>0.2511566892559377</v>
+        <v>0.06164760887349412</v>
       </c>
       <c r="Q12">
-        <v>7.591374724814999</v>
+        <v>1.629224422235333</v>
       </c>
       <c r="R12">
-        <v>45.54824834889</v>
+        <v>9.775346533411998</v>
       </c>
       <c r="S12">
-        <v>0.0218981269842396</v>
+        <v>0.006464312071831425</v>
       </c>
       <c r="T12">
-        <v>0.01773066718331255</v>
+        <v>0.004624908367543805</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7916129999999999</v>
+        <v>0.8673346666666665</v>
       </c>
       <c r="H13">
-        <v>2.374839</v>
+        <v>2.602004</v>
       </c>
       <c r="I13">
-        <v>0.0654254457496749</v>
+        <v>0.07206082965981524</v>
       </c>
       <c r="J13">
-        <v>0.07059603801849912</v>
+        <v>0.07502169917140648</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.445583666666667</v>
+        <v>12.924656</v>
       </c>
       <c r="N13">
-        <v>19.336751</v>
+        <v>38.773968</v>
       </c>
       <c r="O13">
-        <v>0.2249650320703492</v>
+        <v>0.617231160081383</v>
       </c>
       <c r="P13">
-        <v>0.2532157683969216</v>
+        <v>0.6362565726519981</v>
       </c>
       <c r="Q13">
-        <v>5.102407823120999</v>
+        <v>11.21000220354133</v>
       </c>
       <c r="R13">
-        <v>45.92167040808899</v>
+        <v>100.890019831872</v>
       </c>
       <c r="S13">
-        <v>0.01471843750129251</v>
+        <v>0.04447818948735469</v>
       </c>
       <c r="T13">
-        <v>0.01787603001263255</v>
+        <v>0.04773304918932834</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.658566</v>
+        <v>1.425086</v>
       </c>
       <c r="H14">
-        <v>5.317132000000001</v>
+        <v>2.850172</v>
       </c>
       <c r="I14">
-        <v>0.2197258832345228</v>
+        <v>0.1184005245532914</v>
       </c>
       <c r="J14">
-        <v>0.1580605897163464</v>
+        <v>0.08217694760298831</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.515984</v>
+        <v>0.9817236666666668</v>
       </c>
       <c r="N14">
-        <v>7.547951999999999</v>
+        <v>2.945171</v>
       </c>
       <c r="O14">
-        <v>0.08781336966822691</v>
+        <v>0.04688329326954743</v>
       </c>
       <c r="P14">
-        <v>0.09884082726736675</v>
+        <v>0.04832841473263862</v>
       </c>
       <c r="Q14">
-        <v>6.688909518944</v>
+        <v>1.399040653235333</v>
       </c>
       <c r="R14">
-        <v>40.133457113664</v>
+        <v>8.394243919412</v>
       </c>
       <c r="S14">
-        <v>0.01929487021015081</v>
+        <v>0.00555100651590021</v>
       </c>
       <c r="T14">
-        <v>0.01562283944593152</v>
+        <v>0.003971481605219532</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.658566</v>
+        <v>1.425086</v>
       </c>
       <c r="H15">
-        <v>5.317132000000001</v>
+        <v>2.850172</v>
       </c>
       <c r="I15">
-        <v>0.2197258832345228</v>
+        <v>0.1184005245532914</v>
       </c>
       <c r="J15">
-        <v>0.1580605897163464</v>
+        <v>0.08217694760298831</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.10016866666667</v>
+        <v>5.154927333333333</v>
       </c>
       <c r="N15">
-        <v>30.300506</v>
+        <v>15.464782</v>
       </c>
       <c r="O15">
-        <v>0.3525180783492433</v>
+        <v>0.2461792235003055</v>
       </c>
       <c r="P15">
-        <v>0.396786715079774</v>
+        <v>0.2537674037418691</v>
       </c>
       <c r="Q15">
-        <v>26.85196501146534</v>
+        <v>7.346214773750666</v>
       </c>
       <c r="R15">
-        <v>161.111790068792</v>
+        <v>44.07728864250399</v>
       </c>
       <c r="S15">
-        <v>0.07745734612142419</v>
+        <v>0.02914774919655812</v>
       </c>
       <c r="T15">
-        <v>0.06271634217712099</v>
+        <v>0.02085383064064196</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.658566</v>
+        <v>1.425086</v>
       </c>
       <c r="H16">
-        <v>5.317132000000001</v>
+        <v>2.850172</v>
       </c>
       <c r="I16">
-        <v>0.2197258832345228</v>
+        <v>0.1184005245532914</v>
       </c>
       <c r="J16">
-        <v>0.1580605897163464</v>
+        <v>0.08217694760298831</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.589755</v>
+        <v>1.8784265</v>
       </c>
       <c r="N16">
-        <v>19.17951</v>
+        <v>3.756853</v>
       </c>
       <c r="O16">
-        <v>0.3347035199121804</v>
+        <v>0.08970632314876403</v>
       </c>
       <c r="P16">
-        <v>0.2511566892559377</v>
+        <v>0.06164760887349412</v>
       </c>
       <c r="Q16">
-        <v>25.49499659133</v>
+        <v>2.676919307178999</v>
       </c>
       <c r="R16">
-        <v>101.97998636532</v>
+        <v>10.707677228716</v>
       </c>
       <c r="S16">
-        <v>0.07354302653440753</v>
+        <v>0.01062127571656073</v>
       </c>
       <c r="T16">
-        <v>0.03969797441499868</v>
+        <v>0.005066012324246643</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.658566</v>
+        <v>1.425086</v>
       </c>
       <c r="H17">
-        <v>5.317132000000001</v>
+        <v>2.850172</v>
       </c>
       <c r="I17">
-        <v>0.2197258832345228</v>
+        <v>0.1184005245532914</v>
       </c>
       <c r="J17">
-        <v>0.1580605897163464</v>
+        <v>0.08217694760298831</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.445583666666667</v>
+        <v>12.924656</v>
       </c>
       <c r="N17">
-        <v>19.336751</v>
+        <v>38.773968</v>
       </c>
       <c r="O17">
-        <v>0.2249650320703492</v>
+        <v>0.617231160081383</v>
       </c>
       <c r="P17">
-        <v>0.2532157683969216</v>
+        <v>0.6362565726519981</v>
       </c>
       <c r="Q17">
-        <v>17.13600958635534</v>
+        <v>18.41874632041599</v>
       </c>
       <c r="R17">
-        <v>102.816057518132</v>
+        <v>110.512477922496</v>
       </c>
       <c r="S17">
-        <v>0.04943064036854022</v>
+        <v>0.07308049312427231</v>
       </c>
       <c r="T17">
-        <v>0.04002343367829522</v>
+        <v>0.05228562303288017</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.08766133333333333</v>
+        <v>0.03909266666666666</v>
       </c>
       <c r="H18">
-        <v>0.262984</v>
+        <v>0.117278</v>
       </c>
       <c r="I18">
-        <v>0.007245057633394309</v>
+        <v>0.00324793888896551</v>
       </c>
       <c r="J18">
-        <v>0.007817636674425919</v>
+        <v>0.003381391740913623</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.515984</v>
+        <v>0.9817236666666668</v>
       </c>
       <c r="N18">
-        <v>7.547951999999999</v>
+        <v>2.945171</v>
       </c>
       <c r="O18">
-        <v>0.08781336966822691</v>
+        <v>0.04688329326954743</v>
       </c>
       <c r="P18">
-        <v>0.09884082726736675</v>
+        <v>0.04832841473263862</v>
       </c>
       <c r="Q18">
-        <v>0.2205545120853333</v>
+        <v>0.03837819605977778</v>
       </c>
       <c r="R18">
-        <v>1.984990608768</v>
+        <v>0.345403764538</v>
       </c>
       <c r="S18">
-        <v>0.0006362129242288636</v>
+        <v>0.000152274071452938</v>
       </c>
       <c r="T18">
-        <v>0.0007727016761759636</v>
+        <v>0.0001634173024283925</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.08766133333333333</v>
+        <v>0.03909266666666666</v>
       </c>
       <c r="H19">
-        <v>0.262984</v>
+        <v>0.117278</v>
       </c>
       <c r="I19">
-        <v>0.007245057633394309</v>
+        <v>0.00324793888896551</v>
       </c>
       <c r="J19">
-        <v>0.007817636674425919</v>
+        <v>0.003381391740913623</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.10016866666667</v>
+        <v>5.154927333333333</v>
       </c>
       <c r="N19">
-        <v>30.300506</v>
+        <v>15.464782</v>
       </c>
       <c r="O19">
-        <v>0.3525180783492433</v>
+        <v>0.2461792235003055</v>
       </c>
       <c r="P19">
-        <v>0.396786715079774</v>
+        <v>0.2537674037418691</v>
       </c>
       <c r="Q19">
-        <v>0.8853942522115555</v>
+        <v>0.2015198559328889</v>
       </c>
       <c r="R19">
-        <v>7.968548269904</v>
+        <v>1.813678703396</v>
       </c>
       <c r="S19">
-        <v>0.002554013794453679</v>
+        <v>0.0007995750736619741</v>
       </c>
       <c r="T19">
-        <v>0.003101934375732629</v>
+        <v>0.0008580870031258491</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.08766133333333333</v>
+        <v>0.03909266666666666</v>
       </c>
       <c r="H20">
-        <v>0.262984</v>
+        <v>0.117278</v>
       </c>
       <c r="I20">
-        <v>0.007245057633394309</v>
+        <v>0.00324793888896551</v>
       </c>
       <c r="J20">
-        <v>0.007817636674425919</v>
+        <v>0.003381391740913623</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.589755</v>
+        <v>1.8784265</v>
       </c>
       <c r="N20">
-        <v>19.17951</v>
+        <v>3.756853</v>
       </c>
       <c r="O20">
-        <v>0.3347035199121804</v>
+        <v>0.08970632314876403</v>
       </c>
       <c r="P20">
-        <v>0.2511566892559377</v>
+        <v>0.06164760887349412</v>
       </c>
       <c r="Q20">
-        <v>0.84065070964</v>
+        <v>0.07343270102233332</v>
       </c>
       <c r="R20">
-        <v>5.04390425784</v>
+        <v>0.4405962061339999</v>
       </c>
       <c r="S20">
-        <v>0.002424946291863687</v>
+        <v>0.0002913606555409777</v>
       </c>
       <c r="T20">
-        <v>0.001963451744954613</v>
+        <v>0.0002084547154919064</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.08766133333333333</v>
+        <v>0.03909266666666666</v>
       </c>
       <c r="H21">
-        <v>0.262984</v>
+        <v>0.117278</v>
       </c>
       <c r="I21">
-        <v>0.007245057633394309</v>
+        <v>0.00324793888896551</v>
       </c>
       <c r="J21">
-        <v>0.007817636674425919</v>
+        <v>0.003381391740913623</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.445583666666667</v>
+        <v>12.924656</v>
       </c>
       <c r="N21">
-        <v>19.336751</v>
+        <v>38.773968</v>
       </c>
       <c r="O21">
-        <v>0.2249650320703492</v>
+        <v>0.617231160081383</v>
       </c>
       <c r="P21">
-        <v>0.2532157683969216</v>
+        <v>0.6362565726519981</v>
       </c>
       <c r="Q21">
-        <v>0.5650284583315556</v>
+        <v>0.5052592687893332</v>
       </c>
       <c r="R21">
-        <v>5.085256124983999</v>
+        <v>4.547333419104</v>
       </c>
       <c r="S21">
-        <v>0.001629884622848079</v>
+        <v>0.00200472908830962</v>
       </c>
       <c r="T21">
-        <v>0.001979548877562714</v>
+        <v>0.002151432719867475</v>
       </c>
     </row>
   </sheetData>
